--- a/BOM/硬件购买03.21更新-带链接.xlsx
+++ b/BOM/硬件购买03.21更新-带链接.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/didi/Downloads/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F015D979-3FC6-1F41-9715-4A37867DE147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28245" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="131">
   <si>
     <t>元件汇总</t>
   </si>
@@ -94,6 +88,9 @@
     <t>https://item.szlcsc.com/101822.html</t>
   </si>
   <si>
+    <t>5.1K</t>
+  </si>
+  <si>
     <t>10K</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
     <t>QFN-32</t>
   </si>
   <si>
+    <t>选EZK</t>
+  </si>
+  <si>
     <t>https://detail.tmall.com/item.htm?spm=a220m.1000858.1000725.11.4583433feVnoLz&amp;id=563921924104&amp;skuId=4753044610869&amp;areaId=370200&amp;user_id=1679662746&amp;cat_id=2&amp;is_b=1&amp;rn=e2a2e7d08aeea1aba9ef4e32b70a8bd2</t>
   </si>
   <si>
@@ -244,7 +244,7 @@
     <t>TL431IDBZT</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.2b774c87cY8tFU&amp;id=668329605655&amp;ns=1&amp;abbucket=11#detail</t>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2b7f2e8dvxQema&amp;id=638650775808&amp;_u=f33mgv8i91c8</t>
   </si>
   <si>
     <t>Type-C</t>
@@ -277,6 +277,9 @@
     <t>TF-Card-Amphenol with TF</t>
   </si>
   <si>
+    <t>型号： DM3D-SF  （特殊型号） 可不买</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537.1997196601.184.3e617484mIIkmo&amp;id=539108142338</t>
   </si>
   <si>
@@ -286,6 +289,12 @@
     <t>GC9A01</t>
   </si>
   <si>
+    <t>淘宝购买</t>
+  </si>
+  <si>
+    <t>选不带电路板</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.11.657d4a0eKIq1Xz&amp;id=607100059457&amp;ns=1&amp;abbucket=11#detail</t>
   </si>
   <si>
@@ -295,6 +304,9 @@
     <t>31.5mm</t>
   </si>
   <si>
+    <t>31.5mm 厚度随心，双卜镜面有弧度</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?spm=a1z0d.6639537.1997196601.4.3e617484S910qJ&amp;id=624702562166</t>
   </si>
   <si>
@@ -304,127 +316,71 @@
     <t>usb摄像头</t>
   </si>
   <si>
+    <t>选不带线的</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?id=567717780577</t>
   </si>
   <si>
+    <t>FFC排线</t>
+  </si>
+  <si>
+    <t>5cm 0.5mm 8p</t>
+  </si>
+  <si>
+    <t>建议同向、反向均购买一份</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?id=616042645618</t>
+  </si>
+  <si>
     <t>3g舵机</t>
   </si>
   <si>
+    <t>选4.3g</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.43dd100a5UwX05&amp;id=599545814107&amp;ns=1&amp;abbucket=11#detail</t>
+  </si>
+  <si>
     <t>9g舵机</t>
   </si>
   <si>
+    <t>选SG90 也就是塑料的</t>
+  </si>
+  <si>
     <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.4bbc100aGEhz6t&amp;id=19375870769&amp;ns=1&amp;abbucket=11#detail</t>
   </si>
   <si>
+    <t>SH1.0 3p线</t>
+  </si>
+  <si>
+    <t>10CM 单头 3p</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.5e8c6a4bUX2mfQ&amp;id=565360096163</t>
+  </si>
+  <si>
     <t>SH1.0 4p线</t>
   </si>
   <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z10.3-c-s.w4002-21223910208.9.5e8c6a4bUX2mfQ&amp;id=565360096163</t>
-  </si>
-  <si>
-    <t>推杆</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF24292F"/>
-        <rFont val="Consolas"/>
-        <family val="2"/>
-      </rPr>
-      <t>M2x25mm</t>
-    </r>
+    <t>10CM 单头 4p</t>
+  </si>
+  <si>
+    <t>轴承</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肩膀6x10x3mm </t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.3-b.w4011-17265465133.101.217110b0yEFQZn&amp;id=585731775120&amp;rn=15bf40bf075caa06d3677d7b582f0d7b&amp;abbucket=4&amp;skuId=4135763231244</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF24292F"/>
         <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>半牙螺丝</t>
-    </r>
-  </si>
-  <si>
-    <t>螺丝</t>
-  </si>
-  <si>
-    <t>M1x10mm，M2</t>
-  </si>
-  <si>
-    <t>若干</t>
-  </si>
-  <si>
-    <t>3D打印件</t>
-  </si>
-  <si>
-    <t>SD卡</t>
-  </si>
-  <si>
-    <t>31.5mm 厚度随心，双卜镜面有弧度</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>选不带线的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>FFC排线</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?id=616042645618</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>5cm 0.5mm 8p</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>建议同向、反向均购买一份</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a230r.1.14.1.43dd100a5UwX05&amp;id=599545814107&amp;ns=1&amp;abbucket=11#detail</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>选4.3g</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>选SG90 也就是塑料的</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10CM 单头 4p</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>型号： DM3D-SF  （特殊型号） 可不买</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>可不买</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-8122096572.96.6fa77415uogcVU&amp;id=40558293785&amp;rn=9197bd747b67f2b20ce48bf207553965&amp;abbucket=4&amp;skuId=60100413621</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=585453925523&amp;price=1.5-17.25&amp;sourceType=item&amp;sourceType=item&amp;detailSharePosition=interactBar&amp;suid=7c11c8ac-30ec-441b-9ee8-5d6002af59af&amp;shareUniqueId=15402963356&amp;ut_sk=1.X7JL9j0tmL8DAP+t+Pr2webx_21646297_1647864277763.TaoPassword-QQ.1&amp;un=701156db85dbb734d327b29a79c3809c&amp;share_crt_v=1&amp;un_site=0&amp;spm=a2159r.13376460.0.0&amp;tbSocialPopKey=shareItem&amp;sp_tk=QWZHYjJnRzllN2U=&amp;cpp=1&amp;shareurl=true&amp;short_name=h.fLhVki0&amp;bxsign=scdc1fJXGo2UV0xyXtc8gyedC5y0_TGzZ3JfS81Ye35MDobCJDZz18nB1Iui_mjV57OBosS3AFR0kT0cLXFhGE0FKkegnlf524QSg20GkXbd-RDKbM0QFA299qPJXUfh5sP&amp;tk=AfGb2gG9e7e&amp;app=chrome&amp;skuId=3967291013294</t>
-  </si>
-  <si>
-    <t>轴承</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF24292F"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>腰部</t>
@@ -434,44 +390,70 @@
         <sz val="10"/>
         <color rgb="FF24292F"/>
         <rFont val="Consolas"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>25x32x4mm</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">肩膀6x10x3mm </t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?spm=a1z10.3-b.w4011-17265465133.101.217110b0yEFQZn&amp;id=585731775120&amp;rn=15bf40bf075caa06d3677d7b582f0d7b&amp;abbucket=4&amp;skuId=4135763231244</t>
-  </si>
-  <si>
-    <t>选EZK</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>淘宝购买</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>选不带电路板</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>SH1.0 3p线</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>10CM 单头 3p</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=585453925523&amp;price=1.5-17.25&amp;sourceType=item&amp;sourceType=item&amp;detailSharePosition=interactBar&amp;suid=7c11c8ac-30ec-441b-9ee8-5d6002af59af&amp;shareUniqueId=15402963356&amp;ut_sk=1.X7JL9j0tmL8DAP+t+Pr2webx_21646297_1647864277763.TaoPassword-QQ.1&amp;un=701156db85dbb734d327b29a79c3809c&amp;share_crt_v=1&amp;un_site=0&amp;spm=a2159r.13376460.0.0&amp;tbSocialPopKey=shareItem&amp;sp_tk=QWZHYjJnRzllN2U=&amp;cpp=1&amp;shareurl=true&amp;short_name=h.fLhVki0&amp;bxsign=scdc1fJXGo2UV0xyXtc8gyedC5y0_TGzZ3JfS81Ye35MDobCJDZz18nB1Iui_mjV57OBosS3AFR0kT0cLXFhGE0FKkegnlf524QSg20GkXbd-RDKbM0QFA299qPJXUfh5sP&amp;tk=AfGb2gG9e7e&amp;app=chrome&amp;skuId=3967291013294</t>
+  </si>
+  <si>
+    <t>推杆</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF24292F"/>
+        <rFont val="Consolas"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M2x25mm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF24292F"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>半牙螺丝</t>
+    </r>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-8122096572.96.6fa77415uogcVU&amp;id=40558293785&amp;rn=9197bd747b67f2b20ce48bf207553965&amp;abbucket=4&amp;skuId=60100413621</t>
+  </si>
+  <si>
+    <t>螺丝</t>
+  </si>
+  <si>
+    <t>M1x10mm，M2</t>
+  </si>
+  <si>
+    <t>若干</t>
+  </si>
+  <si>
+    <t>3D打印件</t>
+  </si>
+  <si>
+    <t>SD卡</t>
+  </si>
+  <si>
+    <t>可不买</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -484,7 +466,6 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -492,7 +473,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -500,7 +480,14 @@
       <sz val="18"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -509,56 +496,187 @@
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color theme="10"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF24292F"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF24292F"/>
       <name val="Consolas"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF24292F"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF24292F"/>
-      <name val="Segoe UI"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="9">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,42 +691,234 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79995117038483843"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39994506668294322"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39994506668294322"/>
+        <fgColor theme="7" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799951170384838"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399945066682943"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -616,84 +926,381 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="10" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="10" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -951,876 +1558,902 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="27.83203125" customWidth="1"/>
-    <col min="2" max="2" width="30.1640625" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="48.6640625" customWidth="1"/>
+    <col min="1" max="1" width="27.8333333333333" customWidth="1"/>
+    <col min="2" max="2" width="30.1666666666667" customWidth="1"/>
+    <col min="6" max="6" width="34.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.3333333333333" customWidth="1"/>
+    <col min="8" max="8" width="48.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="15"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="3"/>
       <c r="H1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="1"/>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2">
-        <v>1</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="7" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="4">
         <v>10</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="3"/>
-      <c r="H4" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="4">
         <v>31</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="3"/>
-      <c r="H5" t="s">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="H5" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="4">
         <v>17</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
-      <c r="F6" s="3"/>
-      <c r="H6" s="4" t="s">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="H6" s="9" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="4">
         <v>3</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
       <c r="H7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="2">
-        <v>1</v>
-      </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
-      <c r="F8" s="3"/>
+      <c r="C8" s="4">
+        <v>1</v>
+      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
       <c r="H8" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="2">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="3"/>
+      <c r="C9" s="4">
+        <v>1</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
       <c r="H9" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="4">
         <v>6</v>
       </c>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
       <c r="H10" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="2" t="s">
+    <row r="11" ht="22.5" spans="1:8">
+      <c r="A11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
-      <c r="F11" s="3"/>
+      <c r="C11" s="4">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
       <c r="H11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="2" t="s">
+    <row r="12" ht="18" customHeight="1" spans="1:6">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" s="4">
+        <v>2</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" ht="18" customHeight="1" spans="1:8">
+      <c r="A13" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="4">
         <v>13</v>
       </c>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="3"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="2" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="H13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
+    </row>
+    <row r="14" ht="22.5" spans="1:8">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="3"/>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="2" t="s">
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="6"/>
+      <c r="H14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="2" t="s">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C15" s="4">
         <v>5</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="3"/>
-      <c r="H14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="2" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="6"/>
+      <c r="H15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="3"/>
-      <c r="H15" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="2" t="s">
+      <c r="C16" s="4">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="6"/>
+      <c r="H16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="3"/>
-      <c r="H16" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="5" t="s">
+      <c r="C17" s="4">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="6"/>
+      <c r="H17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="5" t="s">
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="5">
-        <v>1</v>
-      </c>
-      <c r="D17" s="20" t="s">
+      <c r="B18" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="1" t="s">
+      <c r="C18" s="10">
+        <v>1</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="H17" t="s">
+      <c r="E18" s="11"/>
+      <c r="F18" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="5" t="s">
+      <c r="H18" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="5">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" t="s">
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="10">
+        <v>1</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="B19" s="6" t="s">
+      <c r="H19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="21" t="s">
+      <c r="B20" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="1" t="s">
+      <c r="C20" s="12">
+        <v>1</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="H19" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="6" t="s">
+      <c r="H20" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="6" t="s">
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="6">
+      <c r="B21" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="12">
         <v>8</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H20" t="s">
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="6" t="s">
+      <c r="H21" t="s">
         <v>49</v>
       </c>
-      <c r="B21" s="6" t="s">
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="6">
-        <v>1</v>
-      </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" t="s">
+      <c r="B22" s="12" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="6" t="s">
+      <c r="C22" s="12">
+        <v>1</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H22" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="6" t="s">
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="C22" s="6">
+      <c r="B23" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C23" s="12">
         <v>6</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="6" t="s">
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="B23" s="6" t="s">
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C23" s="6">
-        <v>1</v>
-      </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H23" t="s">
+      <c r="B24" s="12" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="6" t="s">
+      <c r="C24" s="12">
+        <v>1</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="H24" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="6">
-        <v>1</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H24" t="s">
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="6" t="s">
+      <c r="B25" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="C25" s="12">
+        <v>1</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s">
         <v>62</v>
       </c>
-      <c r="C25" s="6">
-        <v>1</v>
-      </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H25" t="s">
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="12" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="6" t="s">
+      <c r="B26" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="B26" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="6">
-        <v>1</v>
-      </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" t="s">
+      <c r="C26" s="12">
+        <v>1</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H26" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="6" t="s">
+      <c r="B27" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="12">
+        <v>1</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="6">
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C28" s="12">
         <v>6</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="6" t="s">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="H28" t="s">
         <v>71</v>
       </c>
-      <c r="C28" s="6">
-        <v>1</v>
-      </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="3"/>
-      <c r="H28" t="s">
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="12" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="6" t="s">
+      <c r="B29" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="C29" s="6">
-        <v>6</v>
-      </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="C29" s="12">
+        <v>1</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="6"/>
       <c r="H29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="7" t="s">
+    <row r="30" spans="1:13">
+      <c r="A30" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7">
-        <v>1</v>
-      </c>
-      <c r="D30" s="22" t="s">
+      <c r="B30" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="C30" s="12">
+        <v>6</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H30" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="22"/>
-      <c r="F30" s="3"/>
-      <c r="H30" t="s">
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="17" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="8" t="s">
+      <c r="B31" s="17"/>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C31" s="8">
+      <c r="E31" s="18"/>
+      <c r="F31" s="6"/>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="19">
         <v>4</v>
       </c>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="3"/>
-      <c r="H31" s="9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C32" s="8">
-        <v>1</v>
-      </c>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="3"/>
-      <c r="H32" t="s">
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="6"/>
+      <c r="H32" s="14" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C33" s="8">
+      <c r="C33" s="19">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18"/>
+      <c r="F33" s="6"/>
+      <c r="H33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="C34" s="19">
         <v>6</v>
       </c>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="3"/>
-      <c r="H33" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="8" t="s">
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="6"/>
+      <c r="H34" t="s">
         <v>83</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C34" s="8">
-        <v>1</v>
-      </c>
-      <c r="D34" s="22"/>
-      <c r="E34" s="22"/>
-      <c r="F34" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" t="s">
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="19" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="10" t="s">
+      <c r="B35" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="10" t="s">
+      <c r="C35" s="19">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="18"/>
+      <c r="F35" s="6" t="s">
         <v>87</v>
-      </c>
-      <c r="C35" s="10">
-        <v>1</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E35" s="17"/>
-      <c r="F35" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="H35" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C36" s="10">
-        <v>1</v>
-      </c>
-      <c r="D36" s="17"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="1" t="s">
+      <c r="C36" s="20">
+        <v>1</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C37" s="20">
+        <v>1</v>
+      </c>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" s="20">
+        <v>1</v>
+      </c>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="H38" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B39" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="C39" s="20">
+        <v>2</v>
+      </c>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H39" s="14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40" s="22" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="22"/>
+      <c r="C40" s="22">
+        <v>5</v>
+      </c>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="H36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="C37" s="10">
-        <v>1</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="1" t="s">
+      <c r="H40" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="H37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="10" t="s">
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="22" t="s">
         <v>109</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B41" s="22"/>
+      <c r="C41" s="22">
+        <v>1</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" t="s">
         <v>111</v>
       </c>
-      <c r="C38" s="10">
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="22"/>
+      <c r="C42" s="22">
+        <v>1</v>
+      </c>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="22"/>
+      <c r="C43" s="22">
+        <v>6</v>
+      </c>
+      <c r="D43" s="21"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="H43" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B44" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="C44" s="22">
         <v>2</v>
       </c>
-      <c r="D38" s="17"/>
-      <c r="E38" s="17"/>
-      <c r="F38" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11">
-        <v>5</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11">
-        <v>1</v>
-      </c>
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="H40" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="11" t="s">
+      <c r="D44" s="21"/>
+      <c r="E44" s="21"/>
+      <c r="F44" s="2"/>
+      <c r="H44" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="45" ht="14.25" spans="1:8">
+      <c r="A45" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B45" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C45" s="22">
+        <v>1</v>
+      </c>
+      <c r="D45" s="21"/>
+      <c r="E45" s="21"/>
+      <c r="F45" s="2"/>
+      <c r="H45" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="46" ht="14.25" spans="1:8">
+      <c r="A46" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="24" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="22">
+        <v>2</v>
+      </c>
+      <c r="D46" s="21"/>
+      <c r="E46" s="21"/>
+      <c r="F46" s="2"/>
+      <c r="H46" s="14" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="47" ht="14.25" spans="1:6">
+      <c r="A47" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>126</v>
+      </c>
+      <c r="C47" s="26" t="s">
+        <v>127</v>
+      </c>
+      <c r="D47" s="21"/>
+      <c r="E47" s="21"/>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="22" t="s">
         <v>128</v>
       </c>
-      <c r="B41" s="11"/>
-      <c r="C41" s="11">
-        <v>1</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="17"/>
-      <c r="F41" s="1" t="s">
+      <c r="B48" s="22"/>
+      <c r="C48" s="22"/>
+      <c r="D48" s="21"/>
+      <c r="E48" s="21"/>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="22" t="s">
         <v>129</v>
       </c>
-      <c r="H41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B42" s="11"/>
-      <c r="C42" s="11">
-        <v>6</v>
-      </c>
-      <c r="D42" s="17"/>
-      <c r="E42" s="17"/>
-      <c r="F42" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="H42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
-      <c r="A43" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="11">
-        <v>2</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="17"/>
-      <c r="F43" s="1"/>
-      <c r="H43" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="18">
-      <c r="A44" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="11">
-        <v>1</v>
-      </c>
-      <c r="D44" s="17"/>
-      <c r="E44" s="17"/>
-      <c r="F44" s="1"/>
-      <c r="H44" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="16">
-      <c r="A45" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C45" s="11">
-        <v>2</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="17"/>
-      <c r="F45" s="1"/>
-      <c r="H45" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="15">
-      <c r="A46" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B46" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C46" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D46" s="17"/>
-      <c r="E46" s="17"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B47" s="11"/>
-      <c r="C47" s="11"/>
-      <c r="D47" s="17"/>
-      <c r="E47" s="17"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="B48" s="11"/>
-      <c r="C48" s="11"/>
-      <c r="D48" s="17"/>
-      <c r="E48" s="17"/>
-      <c r="F48" s="1" t="s">
-        <v>118</v>
+      <c r="B49" s="22"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="2" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="D35:E48"/>
+    <mergeCell ref="H30:M30"/>
     <mergeCell ref="A1:E2"/>
-    <mergeCell ref="D3:E16"/>
-    <mergeCell ref="D17:E18"/>
-    <mergeCell ref="D19:E29"/>
-    <mergeCell ref="D30:E34"/>
+    <mergeCell ref="D36:E49"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="D20:E30"/>
+    <mergeCell ref="D31:E35"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="H31" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="H38" r:id="rId3" xr:uid="{FA826249-0C56-FE4E-954B-85D4B5F5F75F}"/>
-    <hyperlink ref="H39" r:id="rId4" location="detail" xr:uid="{3B6ACD56-F018-2141-87DC-8EC1766D3EF2}"/>
+    <hyperlink ref="H6" r:id="rId1" display="https://item.szlcsc.com/984087.html" tooltip="https://item.szlcsc.com/984087.html"/>
+    <hyperlink ref="H32" r:id="rId2" display="https://item.taobao.com/item.htm?spm=a1z0d.6639537.1997196601.151.673a7484Bi9ilJ&amp;id=552629356951"/>
+    <hyperlink ref="H39" r:id="rId3" display="https://item.taobao.com/item.htm?id=616042645618"/>
+    <hyperlink ref="H40" r:id="rId4" display="https://item.taobao.com/item.htm?spm=a230r.1.14.1.43dd100a5UwX05&amp;id=599545814107&amp;ns=1&amp;abbucket=11#detail"/>
+    <hyperlink ref="H5" r:id="rId5" display="https://item.szlcsc.com/1877.html"/>
+    <hyperlink ref="H20" r:id="rId6" display="https://item.taobao.com/item.htm?spm=a1z0d.6639537.1997196601.64.5b307484M1Vf8r&amp;id=522575454240"/>
+    <hyperlink ref="H22" r:id="rId7" display="https://item.taobao.com/item.htm?spm=a230r.1.14.16.6074385dlSDD5A&amp;id=42302630267&amp;ns=1&amp;abbucket=11#detail"/>
+    <hyperlink ref="H23" r:id="rId8" display="https://detail.tmall.com/item.htm?spm=a230r.1.14.22.4dbb73advQSrYO&amp;id=625395611697&amp;ns=1&amp;abbucket=11&amp;skuId=4595337546792"/>
+    <hyperlink ref="H26" r:id="rId9" display="https://item.taobao.com/item.htm?spm=a1z0d.6639537.1997196601.52.7bc474844uansk&amp;id=567827644067"/>
+    <hyperlink ref="H30" r:id="rId10" display="https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2b7f2e8dvxQema&amp;id=638650775808&amp;_u=f33mgv8i91c8"/>
+    <hyperlink ref="H46" r:id="rId11" display="https://detail.tmall.com/item.htm?spm=a1z10.3-b-s.w4011-8122096572.96.6fa77415uogcVU&amp;id=40558293785&amp;rn=9197bd747b67f2b20ce48bf207553965&amp;abbucket=4&amp;skuId=60100413621"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>